--- a/emotions/er_experiments.xlsx
+++ b/emotions/er_experiments.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD6D05-5012-4AA7-BDF7-AE0E79CDA4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF28325-E173-4D21-991A-630C8870292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FER-2013" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="13">
   <si>
     <t>angry</t>
   </si>
@@ -483,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1879,7 +1883,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2071,4 +2075,800 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CC4B30-9FDD-46BE-9119-5153D632AA00}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>187</v>
+      </c>
+      <c r="F2">
+        <v>169</v>
+      </c>
+      <c r="G2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>131</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>259</v>
+      </c>
+      <c r="E4">
+        <v>212</v>
+      </c>
+      <c r="F4">
+        <v>166</v>
+      </c>
+      <c r="G4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>223</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <v>450</v>
+      </c>
+      <c r="E5">
+        <v>349</v>
+      </c>
+      <c r="F5">
+        <v>324</v>
+      </c>
+      <c r="G5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>281</v>
+      </c>
+      <c r="E6">
+        <v>253</v>
+      </c>
+      <c r="F6">
+        <v>229</v>
+      </c>
+      <c r="G6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>194</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <v>287</v>
+      </c>
+      <c r="E7">
+        <v>235</v>
+      </c>
+      <c r="F7">
+        <v>220</v>
+      </c>
+      <c r="G7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+      <c r="D8">
+        <v>211</v>
+      </c>
+      <c r="E8">
+        <v>169</v>
+      </c>
+      <c r="F8">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEDE472-6522-4F4D-8666-E7094112033D}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>700</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>217</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>446</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>171</v>
+      </c>
+      <c r="G4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1427</v>
+      </c>
+      <c r="E5">
+        <v>136</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>861</v>
+      </c>
+      <c r="F6">
+        <v>148</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>224</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>226</v>
+      </c>
+      <c r="F7">
+        <v>640</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D7DA5F-450C-425E-BD4D-EC044483AB2C}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>114</v>
+      </c>
+      <c r="D2">
+        <v>228</v>
+      </c>
+      <c r="E2">
+        <v>188</v>
+      </c>
+      <c r="F2">
+        <v>168</v>
+      </c>
+      <c r="G2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>264</v>
+      </c>
+      <c r="E4">
+        <v>196</v>
+      </c>
+      <c r="F4">
+        <v>164</v>
+      </c>
+      <c r="G4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>260</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>217</v>
+      </c>
+      <c r="D5">
+        <v>417</v>
+      </c>
+      <c r="E5">
+        <v>361</v>
+      </c>
+      <c r="F5">
+        <v>283</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>184</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>306</v>
+      </c>
+      <c r="E6">
+        <v>244</v>
+      </c>
+      <c r="F6">
+        <v>213</v>
+      </c>
+      <c r="G6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>132</v>
+      </c>
+      <c r="D7">
+        <v>315</v>
+      </c>
+      <c r="E7">
+        <v>248</v>
+      </c>
+      <c r="F7">
+        <v>206</v>
+      </c>
+      <c r="G7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>219</v>
+      </c>
+      <c r="E8">
+        <v>168</v>
+      </c>
+      <c r="F8">
+        <v>141</v>
+      </c>
+      <c r="G8">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890D9B67-AC28-4F13-A388-D227C87EC7E9}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>620</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>114</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>128</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>462</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>103</v>
+      </c>
+      <c r="F4">
+        <v>213</v>
+      </c>
+      <c r="G4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1554</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>873</v>
+      </c>
+      <c r="F6">
+        <v>149</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>109</v>
+      </c>
+      <c r="D7">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>225</v>
+      </c>
+      <c r="F7">
+        <v>717</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>